--- a/biology/Histoire de la zoologie et de la botanique/Camille_Sauvageau/Camille_Sauvageau.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Camille_Sauvageau/Camille_Sauvageau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Camille François Sauvageau, né le 12 mai 1861 à Angers et mort le 5 août 1936 au Pouget, près de Sarlat, était un botaniste et un phycologue français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Camille François Sauvageau, né le 12 mai 1861 à Angers et mort le 5 août 1936 au Pouget, près de Sarlat, était un botaniste et un phycologue français.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudia les sciences naturelles à l'université de Montpellier, y terminant ses études en 1884. Il obtient l'agrégation de sciences naturelles en 1886[2], puis exerça les fonctions d’assistant auprès de Charles Flahault (1884-1888) à Montpellier et de Philippe Van Tieghem (1885-1891) à Paris[3]. En 1891, il obtint son doctorat à Paris avec la thèse Sur les feuilles de quelques monocotylédones aquatiques[4]. En 1892, il fut nommé professeur à l'université de Lyon avant de devenir professeur de botanique à la Faculté des Sciences de Bordeaux (1901-1932)[3].
-Il est connu pour ses enquêtes sur les Phaeophyceae et était une autorité en taxonomie pour de nombreuses espèces d'algues brunes[5]. En 1926, il décrivit l'ordre des Sporochnales[6].  On a donné son nom au genre mycologique Sauvageautia (Har., 1892) ainsi qu’aux algues du genre Sauvageaugloia (Hamel ex Kylin, 1940)[3].
-L'Académie française des Sciences lui décerna le Prix Montagne pour 1904[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudia les sciences naturelles à l'université de Montpellier, y terminant ses études en 1884. Il obtient l'agrégation de sciences naturelles en 1886, puis exerça les fonctions d’assistant auprès de Charles Flahault (1884-1888) à Montpellier et de Philippe Van Tieghem (1885-1891) à Paris. En 1891, il obtint son doctorat à Paris avec la thèse Sur les feuilles de quelques monocotylédones aquatiques. En 1892, il fut nommé professeur à l'université de Lyon avant de devenir professeur de botanique à la Faculté des Sciences de Bordeaux (1901-1932).
+Il est connu pour ses enquêtes sur les Phaeophyceae et était une autorité en taxonomie pour de nombreuses espèces d'algues brunes. En 1926, il décrivit l'ordre des Sporochnales.  On a donné son nom au genre mycologique Sauvageautia (Har., 1892) ainsi qu’aux algues du genre Sauvageaugloia (Hamel ex Kylin, 1940).
+L'Académie française des Sciences lui décerna le Prix Montagne pour 1904.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur la racine du Najas. 8 p. 1889
 Sur quelques algues phéosporées parasites, 21 p. 1892
@@ -558,7 +574,7 @@
 A propos de la rencontre du Desmarestia Dudresnayi Lamx. dans le golfe de Gascogne. 1925
 Sur le développement de quelques phéosporées ; Sur quelques algues phéosporées de la rade de Villefranche (Alpes-Maritimes) ; Sur quelques algues phéosporées de Guéthary (Basses-Pyrénées), 1929
 Second mémoire sur les algues phéosporées de Villefranche-sur-Mer. Réimprimé par l'université de Bordeaux, 203 p. 1936
-Il a réalisé des contributions avec Narcisse Patouillard dans le Catalogue raisonné des plantes cellulaires de la Tunisie[8].
+Il a réalisé des contributions avec Narcisse Patouillard dans le Catalogue raisonné des plantes cellulaires de la Tunisie.
 </t>
         </is>
       </c>
